--- a/ShinyApp/Model/RunControl.xlsx
+++ b/ShinyApp/Model/RunControl.xlsx
@@ -569,10 +569,10 @@
     <t>sd</t>
   </si>
   <si>
-    <t>Shiny1</t>
-  </si>
-  <si>
     <t>MA_0_pct1</t>
+  </si>
+  <si>
+    <t>Shiny</t>
   </si>
 </sst>
 </file>
@@ -771,7 +771,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,16 +786,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1296,10 +1296,10 @@
   <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="W6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="U1" sqref="U1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z11" sqref="Z11"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1471,59 +1471,59 @@
       </c>
     </row>
     <row r="4" spans="1:43" s="8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="33" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="29" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30" t="s">
+      <c r="I4" s="31"/>
+      <c r="J4" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="29" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30" t="s">
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="28" t="s">
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
       <c r="Y4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="28" t="s">
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
       <c r="AF4" s="22" t="s">
         <v>70</v>
       </c>
@@ -1531,12 +1531,12 @@
       <c r="AH4" s="22"/>
       <c r="AI4" s="22"/>
       <c r="AJ4" s="22"/>
-      <c r="AK4" s="32" t="s">
+      <c r="AK4" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
       <c r="AO4" s="16"/>
       <c r="AP4" s="23"/>
       <c r="AQ4" s="21"/>
@@ -1630,7 +1630,7 @@
         <v>106</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>102</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>174</v>
@@ -1826,17 +1826,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AK4:AN4"/>
     <mergeCell ref="V4:X4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <dataValidations count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI6">
